--- a/Realme/DECEMBER/All Details/12.12.2021/realme Bank Statement December-2021.xlsx
+++ b/Realme/DECEMBER/All Details/12.12.2021/realme Bank Statement December-2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU\Realme\DECEMBER\All Details\10.12.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU\Realme\DECEMBER\All Details\12.12.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>Date</t>
   </si>
@@ -375,9 +375,6 @@
     <t>Boss (+)</t>
   </si>
   <si>
-    <t>bKash Jafor(-)</t>
-  </si>
-  <si>
     <t>S= Dighi Telecom</t>
   </si>
   <si>
@@ -390,7 +387,10 @@
     <t>11.12.2021</t>
   </si>
   <si>
-    <t>Date: 11.12.2021</t>
+    <t>12.12.2021</t>
+  </si>
+  <si>
+    <t>Date: 12.12.2021</t>
   </si>
 </sst>
 </file>
@@ -3219,7 +3219,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3567,7 +3567,7 @@
     <row r="18" spans="1:11" ht="12.75" customHeight="1">
       <c r="A18" s="15"/>
       <c r="B18" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" s="19">
         <v>0</v>
@@ -3588,12 +3588,18 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="15"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="B19" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="19">
+        <v>700000</v>
+      </c>
+      <c r="D19" s="153">
+        <v>683000</v>
+      </c>
       <c r="E19" s="185">
         <f t="shared" si="0"/>
-        <v>12130</v>
+        <v>29130</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="1"/>
@@ -3609,7 +3615,7 @@
       <c r="D20" s="19"/>
       <c r="E20" s="185">
         <f>E19+C20-D20</f>
-        <v>12130</v>
+        <v>29130</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="7"/>
@@ -3625,7 +3631,7 @@
       <c r="D21" s="181"/>
       <c r="E21" s="194">
         <f>E20+C21-D21</f>
-        <v>12130</v>
+        <v>29130</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="1"/>
@@ -3641,7 +3647,7 @@
       <c r="D22" s="19"/>
       <c r="E22" s="185">
         <f>E21+C22-D22</f>
-        <v>12130</v>
+        <v>29130</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="1"/>
@@ -3657,7 +3663,7 @@
       <c r="D23" s="183"/>
       <c r="E23" s="32">
         <f t="shared" si="0"/>
-        <v>12130</v>
+        <v>29130</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="1"/>
@@ -3673,7 +3679,7 @@
       <c r="D24" s="19"/>
       <c r="E24" s="185">
         <f t="shared" si="0"/>
-        <v>12130</v>
+        <v>29130</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="1"/>
@@ -3689,7 +3695,7 @@
       <c r="D25" s="19"/>
       <c r="E25" s="185">
         <f t="shared" si="0"/>
-        <v>12130</v>
+        <v>29130</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="1"/>
@@ -3705,7 +3711,7 @@
       <c r="D26" s="19"/>
       <c r="E26" s="185">
         <f t="shared" si="0"/>
-        <v>12130</v>
+        <v>29130</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="1"/>
@@ -3721,7 +3727,7 @@
       <c r="D27" s="19"/>
       <c r="E27" s="185">
         <f t="shared" si="0"/>
-        <v>12130</v>
+        <v>29130</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="1"/>
@@ -3737,7 +3743,7 @@
       <c r="D28" s="19"/>
       <c r="E28" s="185">
         <f t="shared" si="0"/>
-        <v>12130</v>
+        <v>29130</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="1"/>
@@ -3753,7 +3759,7 @@
       <c r="D29" s="19"/>
       <c r="E29" s="185">
         <f t="shared" si="0"/>
-        <v>12130</v>
+        <v>29130</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="1"/>
@@ -3769,7 +3775,7 @@
       <c r="D30" s="19"/>
       <c r="E30" s="185">
         <f t="shared" si="0"/>
-        <v>12130</v>
+        <v>29130</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="1"/>
@@ -3785,7 +3791,7 @@
       <c r="D31" s="19"/>
       <c r="E31" s="185">
         <f t="shared" si="0"/>
-        <v>12130</v>
+        <v>29130</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="1"/>
@@ -3801,7 +3807,7 @@
       <c r="D32" s="22"/>
       <c r="E32" s="185">
         <f t="shared" si="0"/>
-        <v>12130</v>
+        <v>29130</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="1"/>
@@ -3817,7 +3823,7 @@
       <c r="D33" s="19"/>
       <c r="E33" s="185">
         <f t="shared" si="0"/>
-        <v>12130</v>
+        <v>29130</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="1"/>
@@ -3833,7 +3839,7 @@
       <c r="D34" s="19"/>
       <c r="E34" s="185">
         <f t="shared" si="0"/>
-        <v>12130</v>
+        <v>29130</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="1"/>
@@ -3849,7 +3855,7 @@
       <c r="D35" s="19"/>
       <c r="E35" s="185">
         <f t="shared" si="0"/>
-        <v>12130</v>
+        <v>29130</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="1"/>
@@ -3865,7 +3871,7 @@
       <c r="D36" s="19"/>
       <c r="E36" s="185">
         <f t="shared" si="0"/>
-        <v>12130</v>
+        <v>29130</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="1"/>
@@ -3881,7 +3887,7 @@
       <c r="D37" s="19"/>
       <c r="E37" s="185">
         <f t="shared" si="0"/>
-        <v>12130</v>
+        <v>29130</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="1"/>
@@ -3897,7 +3903,7 @@
       <c r="D38" s="19"/>
       <c r="E38" s="185">
         <f t="shared" si="0"/>
-        <v>12130</v>
+        <v>29130</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="1"/>
@@ -3913,7 +3919,7 @@
       <c r="D39" s="19"/>
       <c r="E39" s="185">
         <f t="shared" si="0"/>
-        <v>12130</v>
+        <v>29130</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="1"/>
@@ -3929,7 +3935,7 @@
       <c r="D40" s="19"/>
       <c r="E40" s="185">
         <f t="shared" si="0"/>
-        <v>12130</v>
+        <v>29130</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="1"/>
@@ -3945,7 +3951,7 @@
       <c r="D41" s="19"/>
       <c r="E41" s="185">
         <f t="shared" si="0"/>
-        <v>12130</v>
+        <v>29130</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="1"/>
@@ -3961,7 +3967,7 @@
       <c r="D42" s="19"/>
       <c r="E42" s="185">
         <f t="shared" si="0"/>
-        <v>12130</v>
+        <v>29130</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="1"/>
@@ -3974,7 +3980,7 @@
       <c r="D43" s="19"/>
       <c r="E43" s="185">
         <f t="shared" si="0"/>
-        <v>12130</v>
+        <v>29130</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="1"/>
@@ -3987,7 +3993,7 @@
       <c r="D44" s="19"/>
       <c r="E44" s="185">
         <f t="shared" si="0"/>
-        <v>12130</v>
+        <v>29130</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="1"/>
@@ -4000,7 +4006,7 @@
       <c r="D45" s="19"/>
       <c r="E45" s="185">
         <f t="shared" si="0"/>
-        <v>12130</v>
+        <v>29130</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="1"/>
@@ -4013,7 +4019,7 @@
       <c r="D46" s="19"/>
       <c r="E46" s="185">
         <f t="shared" si="0"/>
-        <v>12130</v>
+        <v>29130</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="1"/>
@@ -4026,7 +4032,7 @@
       <c r="D47" s="19"/>
       <c r="E47" s="185">
         <f t="shared" si="0"/>
-        <v>12130</v>
+        <v>29130</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="1"/>
@@ -4038,7 +4044,7 @@
       <c r="D48" s="19"/>
       <c r="E48" s="185">
         <f t="shared" si="0"/>
-        <v>12130</v>
+        <v>29130</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="1"/>
@@ -4050,7 +4056,7 @@
       <c r="D49" s="19"/>
       <c r="E49" s="185">
         <f t="shared" si="0"/>
-        <v>12130</v>
+        <v>29130</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="1"/>
@@ -4062,7 +4068,7 @@
       <c r="D50" s="19"/>
       <c r="E50" s="185">
         <f t="shared" si="0"/>
-        <v>12130</v>
+        <v>29130</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="1"/>
@@ -4072,11 +4078,11 @@
       <c r="B51" s="25"/>
       <c r="C51" s="21">
         <f>SUM(C5:C50)</f>
-        <v>5745830</v>
+        <v>6445830</v>
       </c>
       <c r="D51" s="21">
         <f>SUM(D5:D50)</f>
-        <v>5733700</v>
+        <v>6416700</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="13"/>
@@ -4579,7 +4585,7 @@
     </row>
     <row r="14" spans="1:24" s="9" customFormat="1">
       <c r="A14" s="116" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" s="124">
         <v>500</v>
@@ -4616,16 +4622,24 @@
       <c r="W14" s="3"/>
     </row>
     <row r="15" spans="1:24" s="9" customFormat="1">
-      <c r="A15" s="116"/>
+      <c r="A15" s="116" t="s">
+        <v>90</v>
+      </c>
       <c r="B15" s="124"/>
       <c r="C15" s="117"/>
       <c r="D15" s="125"/>
       <c r="E15" s="125"/>
       <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
+      <c r="G15" s="125">
+        <v>70</v>
+      </c>
       <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="125"/>
+      <c r="I15" s="125">
+        <v>225</v>
+      </c>
+      <c r="J15" s="125">
+        <v>160</v>
+      </c>
       <c r="K15" s="118"/>
       <c r="L15" s="125"/>
       <c r="M15" s="155"/>
@@ -4634,7 +4648,7 @@
       <c r="P15" s="127"/>
       <c r="Q15" s="121">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="R15" s="122"/>
       <c r="S15" s="4"/>
@@ -5196,7 +5210,7 @@
       </c>
       <c r="G37" s="143">
         <f>SUM(G6:G36)</f>
-        <v>960</v>
+        <v>1030</v>
       </c>
       <c r="H37" s="143">
         <f t="shared" si="1"/>
@@ -5204,11 +5218,11 @@
       </c>
       <c r="I37" s="143">
         <f t="shared" si="1"/>
-        <v>830</v>
+        <v>1055</v>
       </c>
       <c r="J37" s="143">
         <f t="shared" si="1"/>
-        <v>1280</v>
+        <v>1440</v>
       </c>
       <c r="K37" s="143">
         <f t="shared" si="1"/>
@@ -5236,7 +5250,7 @@
       </c>
       <c r="Q37" s="145">
         <f>SUM(Q6:Q36)</f>
-        <v>6935</v>
+        <v>7390</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -15990,7 +16004,7 @@
   <dimension ref="A1:AC225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -16111,7 +16125,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="226">
-        <v>8070950</v>
+        <v>7687630</v>
       </c>
       <c r="F5" s="1"/>
       <c r="J5" s="1"/>
@@ -16140,14 +16154,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="186">
-        <v>106592.3</v>
+        <v>116276.1</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="176" t="s">
         <v>54</v>
       </c>
       <c r="E6" s="187">
-        <v>12130</v>
+        <v>29130</v>
       </c>
       <c r="F6" s="1"/>
       <c r="J6" s="1"/>
@@ -16179,7 +16193,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="187">
-        <v>553647.30000000075</v>
+        <v>346196.09999999963</v>
       </c>
       <c r="F7" s="1"/>
       <c r="H7" s="29"/>
@@ -16241,7 +16255,7 @@
         <v>84</v>
       </c>
       <c r="B9" s="186">
-        <v>6935</v>
+        <v>7390</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="176"/>
@@ -16316,14 +16330,14 @@
       </c>
       <c r="B11" s="229">
         <f>B6-B10-B9+B7</f>
-        <v>99657.3</v>
+        <v>108886.1</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="176" t="s">
         <v>46</v>
       </c>
       <c r="E11" s="227">
-        <v>0</v>
+        <v>683000</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="29"/>
@@ -16419,10 +16433,10 @@
       <c r="AC13" s="1"/>
     </row>
     <row r="14" spans="1:29" ht="21.75">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="236" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="186">
+      <c r="B14" s="237">
         <v>2000000</v>
       </c>
       <c r="C14" s="33"/>
@@ -16454,12 +16468,8 @@
       <c r="AC14" s="1"/>
     </row>
     <row r="15" spans="1:29" ht="21.75">
-      <c r="A15" s="236" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="237">
-        <v>100000</v>
-      </c>
+      <c r="A15" s="236"/>
+      <c r="B15" s="237"/>
       <c r="C15" s="33"/>
       <c r="D15" s="177"/>
       <c r="E15" s="227"/>
@@ -16495,7 +16505,7 @@
       </c>
       <c r="B16" s="186">
         <f>B5+B6-B9+B14-B15</f>
-        <v>8999657.3000000007</v>
+        <v>9108886.0999999996</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="176" t="s">
@@ -16503,7 +16513,7 @@
       </c>
       <c r="E16" s="187">
         <f>E5+E6+E7+E10+E11+E12</f>
-        <v>8999657.3000000007</v>
+        <v>9108886.0999999996</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="153">
@@ -16607,7 +16617,7 @@
       </c>
       <c r="C19" s="248"/>
       <c r="D19" s="249" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E19" s="250">
         <v>21270</v>
@@ -16638,14 +16648,14 @@
     </row>
     <row r="20" spans="1:29" ht="22.5" thickBot="1">
       <c r="A20" s="251" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="188">
         <v>37340</v>
       </c>
       <c r="C20" s="172"/>
       <c r="D20" s="233" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E20" s="189">
         <v>69330</v>
